--- a/cypress/fixtures/GoldenGoals_Translations.xlsx
+++ b/cypress/fixtures/GoldenGoals_Translations.xlsx
@@ -1,30 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6BA25D5-0720-4A30-9D98-EA4B035A2F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163CCE1C-D804-48FA-AA8E-1689F2147BBF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" iterateDelta="1E-4"/>
+  <calcPr calcId="179021" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -67,9 +61,6 @@
   </si>
   <si>
     <t>BONUS</t>
-  </si>
-  <si>
-    <t>CONGRATULATIONS</t>
   </si>
   <si>
     <t>CONGRATULATIONS!</t>
@@ -2131,6 +2122,9 @@
   </si>
   <si>
     <t>BÔNUS</t>
+  </si>
+  <si>
+    <t>CONGRATULATIONS1212121</t>
   </si>
 </sst>
 </file>
@@ -2749,7 +2743,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3066,9 +3060,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3106,7 +3100,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3212,7 +3206,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3365,10 +3359,10 @@
   <dimension ref="A1:AS351"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15.75"/>
@@ -3472,31 +3466,31 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="H2" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="I2" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="J2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -3538,31 +3532,31 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="H3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="J3" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -3647,34 +3641,34 @@
     </row>
     <row r="5" spans="1:44" ht="33" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="75" t="s">
+      <c r="H5" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="I5" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="65" t="s">
         <v>34</v>
-      </c>
-      <c r="I5" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="65" t="s">
-        <v>35</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -3713,34 +3707,34 @@
     </row>
     <row r="6" spans="1:44" ht="33" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="75" t="s">
+      <c r="H6" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="48" t="s">
+      <c r="J6" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -3789,34 +3783,34 @@
     </row>
     <row r="9" spans="1:44" s="8" customFormat="1" ht="33" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="75" t="s">
+      <c r="H9" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="I9" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="J9" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -3854,34 +3848,34 @@
     </row>
     <row r="10" spans="1:44" s="8" customFormat="1" ht="33" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="57" t="s">
+      <c r="H10" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="56" t="s">
+      <c r="I10" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="90" t="s">
+      <c r="J10" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -3962,36 +3956,36 @@
       <c r="AQ11" s="1"/>
       <c r="AR11" s="1"/>
     </row>
-    <row r="12" spans="1:44" s="8" customFormat="1" ht="30.75">
+    <row r="12" spans="1:44" s="8" customFormat="1" ht="30">
       <c r="A12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="75" t="s">
+      <c r="H12" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="I12" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="90" t="s">
+      <c r="J12" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -4027,36 +4021,36 @@
       <c r="AQ12" s="15"/>
       <c r="AR12" s="15"/>
     </row>
-    <row r="13" spans="1:44" s="8" customFormat="1" ht="30.75">
+    <row r="13" spans="1:44" s="8" customFormat="1" ht="30">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="77" t="s">
+      <c r="H13" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="I13" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="I13" s="90" t="s">
+      <c r="J13" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -4092,36 +4086,36 @@
       <c r="AQ13" s="15"/>
       <c r="AR13" s="15"/>
     </row>
-    <row r="14" spans="1:44" s="8" customFormat="1" ht="30.75">
+    <row r="14" spans="1:44" s="8" customFormat="1" ht="30">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="77" t="s">
+      <c r="H14" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="I14" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="I14" s="90" t="s">
+      <c r="J14" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -4159,34 +4153,34 @@
     </row>
     <row r="15" spans="1:44" s="8" customFormat="1" ht="33" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="D15" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="G15" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="G15" s="77" t="s">
+      <c r="H15" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="I15" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="I15" s="90" t="s">
+      <c r="J15" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -4224,34 +4218,34 @@
     </row>
     <row r="16" spans="1:44" s="8" customFormat="1" ht="33" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="G16" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="75" t="s">
+      <c r="H16" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="I16" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="I16" s="48" t="s">
+      <c r="J16" s="65" t="s">
         <v>103</v>
-      </c>
-      <c r="J16" s="65" t="s">
-        <v>104</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -4289,34 +4283,34 @@
     </row>
     <row r="17" spans="1:44" s="8" customFormat="1" ht="51.75" customHeight="1">
       <c r="A17" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="G17" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="G17" s="75" t="s">
+      <c r="H17" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="I17" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="I17" s="48" t="s">
+      <c r="J17" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -4352,36 +4346,36 @@
       <c r="AQ17" s="15"/>
       <c r="AR17" s="15"/>
     </row>
-    <row r="18" spans="1:44" s="8" customFormat="1" ht="60.75">
+    <row r="18" spans="1:44" s="8" customFormat="1" ht="63">
       <c r="A18" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="G18" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="G18" s="75" t="s">
+      <c r="H18" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="I18" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="I18" s="48" t="s">
+      <c r="J18" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -4417,36 +4411,36 @@
       <c r="AQ18" s="15"/>
       <c r="AR18" s="15"/>
     </row>
-    <row r="19" spans="1:44" s="8" customFormat="1" ht="60.75">
+    <row r="19" spans="1:44" s="8" customFormat="1" ht="60">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="G19" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="G19" s="76" t="s">
+      <c r="H19" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="I19" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="I19" s="48" t="s">
+      <c r="J19" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -4482,36 +4476,36 @@
       <c r="AQ19" s="15"/>
       <c r="AR19" s="15"/>
     </row>
-    <row r="20" spans="1:44" s="8" customFormat="1" ht="60.75">
+    <row r="20" spans="1:44" s="8" customFormat="1" ht="60">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="G20" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="G20" s="76" t="s">
+      <c r="H20" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="I20" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="I20" s="48" t="s">
+      <c r="J20" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -4547,36 +4541,36 @@
       <c r="AQ20" s="15"/>
       <c r="AR20" s="15"/>
     </row>
-    <row r="21" spans="1:44" s="8" customFormat="1" ht="60.75">
+    <row r="21" spans="1:44" s="8" customFormat="1" ht="60">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="G21" s="76" t="s">
         <v>145</v>
       </c>
-      <c r="G21" s="76" t="s">
+      <c r="H21" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="I21" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="I21" s="48" t="s">
+      <c r="J21" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -4612,36 +4606,36 @@
       <c r="AQ21" s="15"/>
       <c r="AR21" s="15"/>
     </row>
-    <row r="22" spans="1:44" s="8" customFormat="1" ht="60.75">
+    <row r="22" spans="1:44" s="8" customFormat="1" ht="60">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="G22" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="G22" s="76" t="s">
+      <c r="H22" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="I22" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="I22" s="48" t="s">
+      <c r="J22" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -4677,36 +4671,36 @@
       <c r="AQ22" s="15"/>
       <c r="AR22" s="15"/>
     </row>
-    <row r="23" spans="1:44" s="8" customFormat="1" ht="60.75">
+    <row r="23" spans="1:44" s="8" customFormat="1" ht="60">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="G23" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="G23" s="76" t="s">
+      <c r="H23" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="I23" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="I23" s="48" t="s">
+      <c r="J23" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -4744,34 +4738,34 @@
     </row>
     <row r="24" spans="1:44" s="8" customFormat="1" ht="50.25" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="F24" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="G24" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="G24" s="76" t="s">
+      <c r="H24" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="I24" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="I24" s="48" t="s">
+      <c r="J24" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -4807,36 +4801,36 @@
       <c r="AQ24" s="15"/>
       <c r="AR24" s="15"/>
     </row>
-    <row r="25" spans="1:44" s="8" customFormat="1" ht="44.25">
+    <row r="25" spans="1:44" s="8" customFormat="1" ht="47.25">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="G25" s="76" t="s">
+      <c r="H25" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="I25" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="I25" s="48" t="s">
+      <c r="J25" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -4872,36 +4866,36 @@
       <c r="AQ25" s="15"/>
       <c r="AR25" s="15"/>
     </row>
-    <row r="26" spans="1:44" s="8" customFormat="1" ht="44.25">
+    <row r="26" spans="1:44" s="8" customFormat="1" ht="47.25">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="76" t="s">
         <v>190</v>
       </c>
-      <c r="G26" s="76" t="s">
+      <c r="H26" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="I26" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="I26" s="48" t="s">
+      <c r="J26" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -4937,36 +4931,36 @@
       <c r="AQ26" s="15"/>
       <c r="AR26" s="15"/>
     </row>
-    <row r="27" spans="1:44" ht="44.25">
+    <row r="27" spans="1:44" ht="47.25">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="D27" s="59" t="s">
         <v>196</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="E27" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="E27" s="60" t="s">
+      <c r="F27" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="F27" s="49" t="s">
+      <c r="G27" s="78" t="s">
         <v>199</v>
       </c>
-      <c r="G27" s="78" t="s">
+      <c r="H27" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="I27" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="I27" s="48" t="s">
+      <c r="J27" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="16"/>
@@ -5005,34 +4999,34 @@
     </row>
     <row r="28" spans="1:44" ht="53.25" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="C28" s="98" t="s">
         <v>204</v>
       </c>
-      <c r="C28" s="98" t="s">
+      <c r="D28" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="E28" s="82" t="s">
         <v>206</v>
       </c>
-      <c r="E28" s="82" t="s">
+      <c r="F28" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="G28" s="99" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="99" t="s">
+      <c r="H28" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="I28" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="I28" s="48" t="s">
+      <c r="J28" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="16"/>
@@ -5071,34 +5065,34 @@
     </row>
     <row r="29" spans="1:44" s="8" customFormat="1" ht="47.25" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C29" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="D29" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="D29" s="61" t="s">
+      <c r="E29" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="E29" s="62" t="s">
+      <c r="F29" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="F29" s="63" t="s">
+      <c r="G29" s="79" t="s">
         <v>217</v>
       </c>
-      <c r="G29" s="79" t="s">
+      <c r="H29" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="I29" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="I29" s="48" t="s">
+      <c r="J29" s="13" t="s">
         <v>220</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>221</v>
       </c>
       <c r="K29" s="16"/>
       <c r="L29" s="1"/>
@@ -5134,36 +5128,36 @@
       <c r="AQ29" s="15"/>
       <c r="AR29" s="15"/>
     </row>
-    <row r="30" spans="1:44" s="8" customFormat="1" ht="87.75">
+    <row r="30" spans="1:44" s="8" customFormat="1" ht="94.5">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="G30" s="76" t="s">
         <v>226</v>
       </c>
-      <c r="G30" s="76" t="s">
+      <c r="H30" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="I30" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="I30" s="48" t="s">
+      <c r="J30" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -5201,34 +5195,34 @@
     </row>
     <row r="31" spans="1:44" s="8" customFormat="1" ht="45.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="76" t="s">
         <v>235</v>
       </c>
-      <c r="G31" s="76" t="s">
+      <c r="H31" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="I31" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="I31" s="48" t="s">
+      <c r="J31" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -5264,36 +5258,36 @@
       <c r="AQ31" s="15"/>
       <c r="AR31" s="15"/>
     </row>
-    <row r="32" spans="1:44" s="8" customFormat="1" ht="60.75">
+    <row r="32" spans="1:44" s="8" customFormat="1" ht="60">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="F32" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="G32" s="76" t="s">
         <v>244</v>
       </c>
-      <c r="G32" s="76" t="s">
+      <c r="H32" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="I32" s="48" t="s">
         <v>246</v>
       </c>
-      <c r="I32" s="48" t="s">
+      <c r="J32" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -5331,34 +5325,34 @@
     </row>
     <row r="33" spans="1:44" s="8" customFormat="1" ht="33" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="F33" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="76" t="s">
         <v>253</v>
       </c>
-      <c r="G33" s="76" t="s">
+      <c r="H33" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="I33" s="48" t="s">
         <v>254</v>
       </c>
-      <c r="H33" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="I33" s="48" t="s">
+      <c r="J33" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -5394,36 +5388,36 @@
       <c r="AQ33" s="15"/>
       <c r="AR33" s="15"/>
     </row>
-    <row r="34" spans="1:44" s="8" customFormat="1" ht="76.5">
+    <row r="34" spans="1:44" s="8" customFormat="1" ht="75">
       <c r="A34" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="76" t="s">
         <v>261</v>
       </c>
-      <c r="G34" s="76" t="s">
+      <c r="H34" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="I34" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="I34" s="48" t="s">
+      <c r="J34" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -5461,34 +5455,34 @@
     </row>
     <row r="35" spans="1:44" s="8" customFormat="1" ht="33" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="E35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="F35" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G35" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="I35" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="I35" s="48" t="s">
+      <c r="J35" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -5526,34 +5520,34 @@
     </row>
     <row r="36" spans="1:44" s="8" customFormat="1" ht="33" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="E36" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="F36" s="53" t="s">
         <v>270</v>
       </c>
-      <c r="F36" s="53" t="s">
+      <c r="G36" s="76" t="s">
         <v>271</v>
       </c>
-      <c r="G36" s="76" t="s">
+      <c r="H36" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="I36" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="I36" s="48" t="s">
+      <c r="J36" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -5591,34 +5585,34 @@
     </row>
     <row r="37" spans="1:44" s="8" customFormat="1" ht="33" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D37" s="11" t="s">
+      <c r="E37" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="G37" s="76" t="s">
         <v>279</v>
       </c>
-      <c r="G37" s="76" t="s">
+      <c r="H37" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I37" s="48" t="s">
         <v>280</v>
       </c>
-      <c r="H37" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="I37" s="48" t="s">
+      <c r="J37" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -5656,34 +5650,34 @@
     </row>
     <row r="38" spans="1:44" s="8" customFormat="1" ht="33" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="E38" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="F38" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="G38" s="76" t="s">
         <v>287</v>
       </c>
-      <c r="G38" s="76" t="s">
+      <c r="H38" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="I38" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="I38" s="48" t="s">
+      <c r="J38" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -5721,34 +5715,34 @@
     </row>
     <row r="39" spans="1:44" s="8" customFormat="1" ht="33" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="E39" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="F39" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="G39" s="76" t="s">
         <v>296</v>
       </c>
-      <c r="G39" s="76" t="s">
+      <c r="H39" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="I39" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="I39" s="48" t="s">
+      <c r="J39" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -5786,34 +5780,34 @@
     </row>
     <row r="40" spans="1:44" s="8" customFormat="1" ht="33" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="E40" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="F40" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="G40" s="76" t="s">
         <v>305</v>
       </c>
-      <c r="G40" s="76" t="s">
+      <c r="H40" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="I40" s="48" t="s">
         <v>307</v>
       </c>
-      <c r="I40" s="48" t="s">
+      <c r="J40" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -5851,34 +5845,34 @@
     </row>
     <row r="41" spans="1:44" s="8" customFormat="1" ht="33" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="E41" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="F41" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="G41" s="76" t="s">
         <v>314</v>
       </c>
-      <c r="G41" s="76" t="s">
+      <c r="H41" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="I41" s="48" t="s">
         <v>315</v>
       </c>
-      <c r="H41" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="I41" s="48" t="s">
+      <c r="J41" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -5916,34 +5910,34 @@
     </row>
     <row r="42" spans="1:44" s="8" customFormat="1" ht="33" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="E42" s="55" t="s">
         <v>320</v>
       </c>
-      <c r="E42" s="55" t="s">
+      <c r="F42" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="G42" s="76" t="s">
         <v>322</v>
       </c>
-      <c r="G42" s="76" t="s">
+      <c r="H42" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="I42" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="I42" s="48" t="s">
+      <c r="J42" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -6026,34 +6020,34 @@
     </row>
     <row r="44" spans="1:44" s="8" customFormat="1" ht="33" customHeight="1">
       <c r="A44" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="F44" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="G44" s="76" t="s">
         <v>331</v>
       </c>
-      <c r="G44" s="76" t="s">
+      <c r="H44" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="I44" s="48" t="s">
         <v>333</v>
       </c>
-      <c r="I44" s="48" t="s">
+      <c r="J44" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -6091,34 +6085,34 @@
     </row>
     <row r="45" spans="1:44" s="8" customFormat="1" ht="33" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" s="57" t="s">
         <v>340</v>
       </c>
-      <c r="G45" s="57" t="s">
+      <c r="H45" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="I45" s="48" t="s">
         <v>342</v>
       </c>
-      <c r="I45" s="48" t="s">
+      <c r="J45" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -6156,34 +6150,34 @@
     </row>
     <row r="46" spans="1:44" s="8" customFormat="1" ht="33" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="G46" s="80" t="s">
         <v>349</v>
       </c>
-      <c r="G46" s="80" t="s">
+      <c r="H46" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="I46" s="48" t="s">
         <v>351</v>
       </c>
-      <c r="I46" s="48" t="s">
+      <c r="J46" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -6221,34 +6215,34 @@
     </row>
     <row r="47" spans="1:44" s="8" customFormat="1" ht="33" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="G47" s="57" t="s">
         <v>358</v>
       </c>
-      <c r="G47" s="57" t="s">
+      <c r="H47" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="H47" s="10" t="s">
+      <c r="I47" s="48" t="s">
         <v>360</v>
       </c>
-      <c r="I47" s="48" t="s">
+      <c r="J47" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -6331,34 +6325,34 @@
     </row>
     <row r="49" spans="1:44" s="1" customFormat="1" ht="33" customHeight="1">
       <c r="A49" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="D49" s="3" t="s">
+      <c r="E49" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="F49" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="G49" s="76" t="s">
         <v>366</v>
       </c>
-      <c r="G49" s="76" t="s">
+      <c r="H49" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="I49" s="48" t="s">
+        <v>324</v>
+      </c>
+      <c r="J49" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="I49" s="48" t="s">
-        <v>325</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="N49" s="15"/>
       <c r="Y49" s="8"/>
@@ -6384,34 +6378,34 @@
     </row>
     <row r="50" spans="1:44" ht="33" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="E50" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="F50" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="G50" s="76" t="s">
         <v>373</v>
       </c>
-      <c r="G50" s="76" t="s">
+      <c r="H50" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="H50" s="10" t="s">
+      <c r="I50" s="48" t="s">
         <v>375</v>
       </c>
-      <c r="I50" s="48" t="s">
+      <c r="J50" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -6450,34 +6444,34 @@
     </row>
     <row r="51" spans="1:44" ht="33" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="E51" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="F51" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="G51" s="76" t="s">
         <v>382</v>
       </c>
-      <c r="G51" s="76" t="s">
+      <c r="H51" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="H51" s="10" t="s">
+      <c r="I51" s="48" t="s">
         <v>384</v>
       </c>
-      <c r="I51" s="48" t="s">
+      <c r="J51" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="K51" s="20"/>
       <c r="L51" s="1"/>
@@ -6561,34 +6555,34 @@
     </row>
     <row r="53" spans="1:44" ht="33" customHeight="1">
       <c r="A53" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="E53" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="F53" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="G53" s="76" t="s">
         <v>392</v>
       </c>
-      <c r="G53" s="76" t="s">
+      <c r="H53" s="56" t="s">
         <v>393</v>
       </c>
-      <c r="H53" s="56" t="s">
+      <c r="I53" s="48" t="s">
         <v>394</v>
       </c>
-      <c r="I53" s="48" t="s">
+      <c r="J53" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -6627,34 +6621,34 @@
     </row>
     <row r="54" spans="1:44" ht="33" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="E54" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="F54" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="G54" s="76" t="s">
         <v>401</v>
       </c>
-      <c r="G54" s="76" t="s">
+      <c r="H54" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="H54" s="10" t="s">
+      <c r="I54" s="48" t="s">
         <v>403</v>
       </c>
-      <c r="I54" s="48" t="s">
+      <c r="J54" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -6693,34 +6687,34 @@
     </row>
     <row r="55" spans="1:44" ht="33" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="E55" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="E55" s="12" t="s">
+      <c r="F55" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="76" t="s">
         <v>410</v>
       </c>
-      <c r="G55" s="76" t="s">
+      <c r="H55" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="H55" s="10" t="s">
+      <c r="I55" s="48" t="s">
         <v>412</v>
       </c>
-      <c r="I55" s="48" t="s">
+      <c r="J55" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -6759,34 +6753,34 @@
     </row>
     <row r="56" spans="1:44" ht="33" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="E56" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="F56" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="G56" s="76" t="s">
         <v>419</v>
       </c>
-      <c r="G56" s="76" t="s">
+      <c r="H56" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="H56" s="10" t="s">
+      <c r="I56" s="48" t="s">
         <v>421</v>
       </c>
-      <c r="I56" s="48" t="s">
+      <c r="J56" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -6870,34 +6864,34 @@
     </row>
     <row r="58" spans="1:44" ht="33" customHeight="1">
       <c r="A58" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="B58" s="48" t="s">
         <v>424</v>
       </c>
-      <c r="B58" s="48" t="s">
+      <c r="C58" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="E58" s="12" t="s">
+      <c r="F58" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="G58" s="57" t="s">
+        <v>425</v>
+      </c>
+      <c r="H58" s="56" t="s">
         <v>428</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="G58" s="57" t="s">
-        <v>426</v>
-      </c>
-      <c r="H58" s="56" t="s">
+      <c r="I58" s="48" t="s">
         <v>429</v>
       </c>
-      <c r="I58" s="48" t="s">
+      <c r="J58" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>431</v>
       </c>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -6936,34 +6930,34 @@
     </row>
     <row r="59" spans="1:44" ht="33" customHeight="1">
       <c r="A59" s="54" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B59" s="48" t="s">
+        <v>431</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="F59" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="G59" s="57" t="s">
         <v>436</v>
       </c>
-      <c r="G59" s="57" t="s">
+      <c r="H59" s="56" t="s">
         <v>437</v>
       </c>
-      <c r="H59" s="56" t="s">
+      <c r="I59" s="48" t="s">
         <v>438</v>
       </c>
-      <c r="I59" s="48" t="s">
+      <c r="J59" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>440</v>
       </c>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -7002,34 +6996,34 @@
     </row>
     <row r="60" spans="1:44" ht="33" customHeight="1">
       <c r="A60" s="54" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B60" s="48" t="s">
+        <v>440</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="F60" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="G60" s="57" t="s">
         <v>445</v>
       </c>
-      <c r="G60" s="57" t="s">
+      <c r="H60" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="H60" s="10" t="s">
+      <c r="I60" s="48" t="s">
         <v>447</v>
       </c>
-      <c r="I60" s="48" t="s">
+      <c r="J60" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -7068,34 +7062,34 @@
     </row>
     <row r="61" spans="1:44" ht="33" customHeight="1">
       <c r="A61" s="54" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B61" s="48" t="s">
+        <v>449</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="F61" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="G61" s="57" t="s">
         <v>454</v>
       </c>
-      <c r="G61" s="57" t="s">
+      <c r="H61" s="56" t="s">
         <v>455</v>
       </c>
-      <c r="H61" s="56" t="s">
+      <c r="I61" s="48" t="s">
         <v>456</v>
       </c>
-      <c r="I61" s="48" t="s">
+      <c r="J61" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>458</v>
       </c>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -7134,34 +7128,34 @@
     </row>
     <row r="62" spans="1:44" ht="33" customHeight="1">
       <c r="A62" s="54" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B62" s="48" t="s">
+        <v>458</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="E62" s="12" t="s">
+      <c r="F62" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="G62" s="57" t="s">
         <v>463</v>
       </c>
-      <c r="G62" s="57" t="s">
+      <c r="H62" s="56" t="s">
         <v>464</v>
       </c>
-      <c r="H62" s="56" t="s">
+      <c r="I62" s="48" t="s">
         <v>465</v>
       </c>
-      <c r="I62" s="48" t="s">
+      <c r="J62" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -7246,34 +7240,34 @@
     </row>
     <row r="64" spans="1:44" ht="33" customHeight="1">
       <c r="A64" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="D64" s="3" t="s">
+      <c r="E64" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="E64" s="12" t="s">
+      <c r="F64" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="G64" s="76" t="s">
+        <v>468</v>
+      </c>
+      <c r="H64" s="56" t="s">
         <v>472</v>
       </c>
-      <c r="G64" s="76" t="s">
-        <v>469</v>
-      </c>
-      <c r="H64" s="56" t="s">
+      <c r="I64" s="48" t="s">
         <v>473</v>
       </c>
-      <c r="I64" s="48" t="s">
+      <c r="J64" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>475</v>
       </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
@@ -7312,34 +7306,34 @@
     </row>
     <row r="65" spans="1:44" ht="33" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="D65" s="3" t="s">
+      <c r="E65" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="E65" s="12" t="s">
+      <c r="F65" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="G65" s="76" t="s">
         <v>479</v>
       </c>
-      <c r="G65" s="76" t="s">
+      <c r="H65" s="56" t="s">
+        <v>475</v>
+      </c>
+      <c r="I65" s="48" t="s">
         <v>480</v>
       </c>
-      <c r="H65" s="56" t="s">
-        <v>476</v>
-      </c>
-      <c r="I65" s="48" t="s">
+      <c r="J65" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>482</v>
       </c>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
@@ -7378,34 +7372,34 @@
     </row>
     <row r="66" spans="1:44" ht="33" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B66" s="49" t="s">
+        <v>482</v>
+      </c>
+      <c r="C66" s="49" t="s">
         <v>483</v>
       </c>
-      <c r="C66" s="49" t="s">
+      <c r="D66" s="59" t="s">
         <v>484</v>
       </c>
-      <c r="D66" s="59" t="s">
+      <c r="E66" s="66" t="s">
         <v>485</v>
       </c>
-      <c r="E66" s="66" t="s">
+      <c r="F66" s="49" t="s">
         <v>486</v>
       </c>
-      <c r="F66" s="49" t="s">
+      <c r="G66" s="78" t="s">
         <v>487</v>
       </c>
-      <c r="G66" s="78" t="s">
+      <c r="H66" s="56" t="s">
         <v>488</v>
       </c>
-      <c r="H66" s="56" t="s">
+      <c r="I66" s="101" t="s">
         <v>489</v>
       </c>
-      <c r="I66" s="101" t="s">
+      <c r="J66" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
@@ -7444,34 +7438,34 @@
     </row>
     <row r="67" spans="1:44" ht="33" customHeight="1">
       <c r="A67" s="57" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B67" s="56" t="s">
+        <v>491</v>
+      </c>
+      <c r="C67" s="69" t="s">
+        <v>491</v>
+      </c>
+      <c r="D67" s="73" t="s">
         <v>492</v>
       </c>
-      <c r="C67" s="69" t="s">
-        <v>492</v>
-      </c>
-      <c r="D67" s="73" t="s">
+      <c r="E67" s="56" t="s">
         <v>493</v>
       </c>
-      <c r="E67" s="56" t="s">
+      <c r="F67" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F67" s="56" t="s">
+      <c r="G67" s="64" t="s">
         <v>495</v>
       </c>
-      <c r="G67" s="64" t="s">
+      <c r="H67" s="82" t="s">
         <v>496</v>
       </c>
-      <c r="H67" s="82" t="s">
+      <c r="I67" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="J67" s="48" t="s">
         <v>497</v>
-      </c>
-      <c r="I67" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="J67" s="48" t="s">
-        <v>498</v>
       </c>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
@@ -7510,34 +7504,34 @@
     </row>
     <row r="68" spans="1:44" ht="33" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B68" s="65" t="s">
+        <v>498</v>
+      </c>
+      <c r="C68" s="67" t="s">
+        <v>498</v>
+      </c>
+      <c r="D68" s="56" t="s">
+        <v>498</v>
+      </c>
+      <c r="E68" s="72" t="s">
+        <v>498</v>
+      </c>
+      <c r="F68" s="68" t="s">
+        <v>498</v>
+      </c>
+      <c r="G68" s="67" t="s">
+        <v>498</v>
+      </c>
+      <c r="H68" s="64" t="s">
+        <v>498</v>
+      </c>
+      <c r="I68" s="56" t="s">
+        <v>498</v>
+      </c>
+      <c r="J68" s="48" t="s">
         <v>499</v>
-      </c>
-      <c r="C68" s="67" t="s">
-        <v>499</v>
-      </c>
-      <c r="D68" s="56" t="s">
-        <v>499</v>
-      </c>
-      <c r="E68" s="72" t="s">
-        <v>499</v>
-      </c>
-      <c r="F68" s="68" t="s">
-        <v>499</v>
-      </c>
-      <c r="G68" s="67" t="s">
-        <v>499</v>
-      </c>
-      <c r="H68" s="64" t="s">
-        <v>499</v>
-      </c>
-      <c r="I68" s="56" t="s">
-        <v>499</v>
-      </c>
-      <c r="J68" s="48" t="s">
-        <v>500</v>
       </c>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
@@ -7622,34 +7616,34 @@
     </row>
     <row r="70" spans="1:44" ht="33" customHeight="1">
       <c r="A70" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="B70" s="18" t="s">
         <v>501</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="C70" s="18" t="s">
         <v>502</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="D70" s="61" t="s">
         <v>503</v>
       </c>
-      <c r="D70" s="61" t="s">
+      <c r="E70" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="F70" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="G70" s="76" t="s">
         <v>506</v>
       </c>
-      <c r="G70" s="76" t="s">
+      <c r="H70" s="56" t="s">
         <v>507</v>
       </c>
-      <c r="H70" s="56" t="s">
+      <c r="I70" s="48" t="s">
         <v>508</v>
       </c>
-      <c r="I70" s="48" t="s">
+      <c r="J70" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>510</v>
       </c>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -7688,34 +7682,34 @@
     </row>
     <row r="71" spans="1:44" ht="33" customHeight="1">
       <c r="A71" s="18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B71" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="C71" s="18" t="s">
         <v>511</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="D71" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="E71" s="4" t="s">
+      <c r="F71" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="G71" s="76" t="s">
         <v>514</v>
       </c>
-      <c r="G71" s="76" t="s">
+      <c r="H71" s="56" t="s">
         <v>515</v>
       </c>
-      <c r="H71" s="56" t="s">
+      <c r="I71" s="48" t="s">
+        <v>515</v>
+      </c>
+      <c r="J71" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="I71" s="48" t="s">
-        <v>516</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>517</v>
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -7754,34 +7748,34 @@
     </row>
     <row r="72" spans="1:44" ht="33" customHeight="1">
       <c r="A72" s="18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B72" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="C72" s="18" t="s">
         <v>518</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="D72" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="E72" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="F72" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="G72" s="76" t="s">
         <v>522</v>
       </c>
-      <c r="G72" s="76" t="s">
+      <c r="H72" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="H72" s="10" t="s">
+      <c r="I72" s="48" t="s">
         <v>524</v>
       </c>
-      <c r="I72" s="48" t="s">
+      <c r="J72" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>526</v>
       </c>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
@@ -7820,34 +7814,34 @@
     </row>
     <row r="73" spans="1:44" ht="33" customHeight="1">
       <c r="A73" s="18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B73" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="C73" s="18" t="s">
         <v>527</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="D73" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="E73" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="F73" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="G73" s="76" t="s">
         <v>531</v>
       </c>
-      <c r="G73" s="76" t="s">
+      <c r="H73" s="56" t="s">
         <v>532</v>
       </c>
-      <c r="H73" s="56" t="s">
+      <c r="I73" s="48" t="s">
         <v>533</v>
       </c>
-      <c r="I73" s="48" t="s">
+      <c r="J73" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>535</v>
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
@@ -7886,34 +7880,34 @@
     </row>
     <row r="74" spans="1:44" ht="33" customHeight="1">
       <c r="A74" s="18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B74" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="C74" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="D74" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="E74" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="F74" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="G74" s="76" t="s">
         <v>540</v>
       </c>
-      <c r="G74" s="76" t="s">
+      <c r="H74" s="56" t="s">
         <v>541</v>
       </c>
-      <c r="H74" s="56" t="s">
+      <c r="I74" s="48" t="s">
         <v>542</v>
       </c>
-      <c r="I74" s="48" t="s">
+      <c r="J74" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>544</v>
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
@@ -7952,34 +7946,34 @@
     </row>
     <row r="75" spans="1:44" ht="33" customHeight="1">
       <c r="A75" s="18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B75" s="18" t="s">
+        <v>544</v>
+      </c>
+      <c r="C75" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="D75" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="E75" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="F75" s="8" t="s">
         <v>548</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="G75" s="76" t="s">
         <v>549</v>
       </c>
-      <c r="G75" s="76" t="s">
+      <c r="H75" s="56" t="s">
         <v>550</v>
       </c>
-      <c r="H75" s="56" t="s">
+      <c r="I75" s="48" t="s">
         <v>551</v>
       </c>
-      <c r="I75" s="48" t="s">
+      <c r="J75" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>553</v>
       </c>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -8018,34 +8012,34 @@
     </row>
     <row r="76" spans="1:44" ht="33" customHeight="1">
       <c r="A76" s="18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B76" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="C76" s="18" t="s">
         <v>554</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="D76" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="E76" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="F76" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="G76" s="76" t="s">
         <v>558</v>
       </c>
-      <c r="G76" s="76" t="s">
+      <c r="H76" s="56" t="s">
         <v>559</v>
       </c>
-      <c r="H76" s="56" t="s">
+      <c r="I76" s="48" t="s">
         <v>560</v>
       </c>
-      <c r="I76" s="48" t="s">
+      <c r="J76" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>562</v>
       </c>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
@@ -8084,34 +8078,34 @@
     </row>
     <row r="77" spans="1:44" ht="33" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="E77" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="G77" s="76" t="s">
         <v>564</v>
       </c>
-      <c r="E77" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="G77" s="76" t="s">
+      <c r="H77" s="56" t="s">
+        <v>563</v>
+      </c>
+      <c r="I77" s="48" t="s">
+        <v>563</v>
+      </c>
+      <c r="J77" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="H77" s="56" t="s">
-        <v>564</v>
-      </c>
-      <c r="I77" s="48" t="s">
-        <v>564</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>566</v>
       </c>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
@@ -8150,34 +8144,34 @@
     </row>
     <row r="78" spans="1:44" ht="33" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="D78" s="1" t="s">
+      <c r="E78" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="E78" s="12" t="s">
+      <c r="F78" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="G78" s="76" t="s">
         <v>570</v>
       </c>
-      <c r="G78" s="76" t="s">
+      <c r="H78" s="56" t="s">
         <v>571</v>
       </c>
-      <c r="H78" s="56" t="s">
+      <c r="I78" s="48" t="s">
         <v>572</v>
       </c>
-      <c r="I78" s="48" t="s">
+      <c r="J78" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>574</v>
       </c>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
@@ -8216,7 +8210,7 @@
     </row>
     <row r="79" spans="1:44" ht="33" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>10</v>
@@ -8237,10 +8231,10 @@
         <v>10</v>
       </c>
       <c r="H79" s="56" t="s">
+        <v>574</v>
+      </c>
+      <c r="I79" s="48" t="s">
         <v>575</v>
-      </c>
-      <c r="I79" s="48" t="s">
-        <v>576</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>10</v>
@@ -18474,26 +18468,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6efa450f-9401-42d1-b436-c75efe9c9453">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="86be37df-d41a-4b84-8d7b-958e42a6200b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000B4BE7BA26F6ED4EA8940CBE43CB47BD" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1b4df796e49b7ef638fffd30847434bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6efa450f-9401-42d1-b436-c75efe9c9453" xmlns:ns3="86be37df-d41a-4b84-8d7b-958e42a6200b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4dadc53eaa5af7022fe23c8af896c95f" ns2:_="" ns3:_="">
     <xsd:import namespace="6efa450f-9401-42d1-b436-c75efe9c9453"/>
@@ -18722,14 +18696,60 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6efa450f-9401-42d1-b436-c75efe9c9453">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="86be37df-d41a-4b84-8d7b-958e42a6200b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEA24BBD-32F0-4C80-9135-F39678586BC2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77CCDC4E-EC18-42C7-84C2-56A931A66BBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6efa450f-9401-42d1-b436-c75efe9c9453"/>
+    <ds:schemaRef ds:uri="86be37df-d41a-4b84-8d7b-958e42a6200b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CCC97C7-1140-47A2-838D-FAFBF82B2AA3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CCC97C7-1140-47A2-838D-FAFBF82B2AA3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6efa450f-9401-42d1-b436-c75efe9c9453"/>
+    <ds:schemaRef ds:uri="86be37df-d41a-4b84-8d7b-958e42a6200b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77CCDC4E-EC18-42C7-84C2-56A931A66BBF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEA24BBD-32F0-4C80-9135-F39678586BC2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/cypress/fixtures/GoldenGoals_Translations.xlsx
+++ b/cypress/fixtures/GoldenGoals_Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163CCE1C-D804-48FA-AA8E-1689F2147BBF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED17727-1852-4A88-9831-ADEAD72D8546}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2124,7 +2124,7 @@
     <t>BÔNUS</t>
   </si>
   <si>
-    <t>CONGRATULATIONS1212121</t>
+    <t>CONGRATULATIONS</t>
   </si>
 </sst>
 </file>
@@ -18468,6 +18468,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6efa450f-9401-42d1-b436-c75efe9c9453">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="86be37df-d41a-4b84-8d7b-958e42a6200b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000B4BE7BA26F6ED4EA8940CBE43CB47BD" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1b4df796e49b7ef638fffd30847434bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6efa450f-9401-42d1-b436-c75efe9c9453" xmlns:ns3="86be37df-d41a-4b84-8d7b-958e42a6200b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4dadc53eaa5af7022fe23c8af896c95f" ns2:_="" ns3:_="">
     <xsd:import namespace="6efa450f-9401-42d1-b436-c75efe9c9453"/>
@@ -18696,27 +18716,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6efa450f-9401-42d1-b436-c75efe9c9453">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="86be37df-d41a-4b84-8d7b-958e42a6200b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEA24BBD-32F0-4C80-9135-F39678586BC2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CCC97C7-1140-47A2-838D-FAFBF82B2AA3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6efa450f-9401-42d1-b436-c75efe9c9453"/>
+    <ds:schemaRef ds:uri="86be37df-d41a-4b84-8d7b-958e42a6200b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77CCDC4E-EC18-42C7-84C2-56A931A66BBF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18733,23 +18752,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CCC97C7-1140-47A2-838D-FAFBF82B2AA3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6efa450f-9401-42d1-b436-c75efe9c9453"/>
-    <ds:schemaRef ds:uri="86be37df-d41a-4b84-8d7b-958e42a6200b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEA24BBD-32F0-4C80-9135-F39678586BC2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>